--- a/batches/02.xlsx
+++ b/batches/02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janindu Laknath\Desktop\CLI AUTOMATION\batches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janindu Laknath\Desktop\dummy batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344F0599-2486-4C48-BB03-A8F3A76034EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366D351C-43BE-4B80-BEB1-BB98F4B505C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="-4560" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Janindu</t>
+  </si>
+  <si>
+    <t>janindulaknath@gmail.com</t>
+  </si>
+  <si>
+    <t>Wallignton</t>
+  </si>
+  <si>
+    <t>Kivin</t>
+  </si>
+  <si>
+    <t>janidul03@gmail.com</t>
+  </si>
+  <si>
+    <t>Carshalton</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
   <si>
     <t>induwara</t>
   </si>
@@ -33,25 +63,247 @@
     <t>kivin@bubltown.com</t>
   </si>
   <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Janindu</t>
-  </si>
-  <si>
-    <t>janindulaknath@gmail.com</t>
-  </si>
-  <si>
-    <t>Wallignton</t>
+    <t>Podd</t>
+  </si>
+  <si>
+    <t>janindu@bubltown.co.uk</t>
+  </si>
+  <si>
+    <t>Hackney</t>
+  </si>
+  <si>
+    <t>alexander.b.phillips@gmail.com</t>
+  </si>
+  <si>
+    <t>kevine.levin9029@gmail.com</t>
+  </si>
+  <si>
+    <t>kevinelevin13@gmail.com</t>
+  </si>
+  <si>
+    <t>shyam@bubltown.co.uk</t>
+  </si>
+  <si>
+    <t>kivinabeywickrama.00@gmail.com</t>
+  </si>
+  <si>
+    <t>onlyforprofwork123@gmail.com</t>
+  </si>
+  <si>
+    <t>shyamadithya789@gmail.com</t>
+  </si>
+  <si>
+    <t>ben@bubltown.com</t>
+  </si>
+  <si>
+    <t>ben@bubltown.co.uk</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Elevin</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>sheehan@bubltown.com</t>
+  </si>
+  <si>
+    <t>zealenterprisessl@gmail.com</t>
+  </si>
+  <si>
+    <t>sjc.sheehan@gmail.com</t>
+  </si>
+  <si>
+    <t>icbthndbatch88@gmail.com</t>
+  </si>
+  <si>
+    <t>ammatasiri12345@gmail.com</t>
+  </si>
+  <si>
+    <t>claudesheehan@gmail.com</t>
+  </si>
+  <si>
+    <t>sheehandezilva@gmail.com</t>
+  </si>
+  <si>
+    <t>ashen.chanilka@gmail.com</t>
+  </si>
+  <si>
+    <t>ashen.icsjc@gmail.com</t>
+  </si>
+  <si>
+    <t>ashen.lowe@yahoo.com</t>
+  </si>
+  <si>
+    <t>ashen.lowe@outlook.com</t>
+  </si>
+  <si>
+    <t>annasophiatschudin@icloud.com</t>
+  </si>
+  <si>
+    <t>shannondezilva@gmail.com</t>
+  </si>
+  <si>
+    <t>gilesdezilva@gmail.com</t>
+  </si>
+  <si>
+    <t>adriandezilva@yahoo.com</t>
+  </si>
+  <si>
+    <t>dillonperera09@gmail.com</t>
+  </si>
+  <si>
+    <t>tharindutissera00@gmail.com</t>
+  </si>
+  <si>
+    <t>shaunfdo15@gmail.com</t>
+  </si>
+  <si>
+    <t>shaunfdo@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jeff@bubltown.com</t>
+  </si>
+  <si>
+    <t>Jeff@bubltown.co.uk</t>
+  </si>
+  <si>
+    <t>jeffjuliandavid@gmail.com</t>
+  </si>
+  <si>
+    <t>jeff.bubltown@yahoo.com</t>
+  </si>
+  <si>
+    <t>jeffjuliandavid92@outlook.com</t>
+  </si>
+  <si>
+    <t>ak.sameera@hotmail.com</t>
+  </si>
+  <si>
+    <t>kasun@bubltown.co.uk</t>
+  </si>
+  <si>
+    <t>samionline87@gmail.com</t>
+  </si>
+  <si>
+    <t>ks1987.ak@gmail.com</t>
+  </si>
+  <si>
+    <t>lilyekana25@gmail.com</t>
+  </si>
+  <si>
+    <t>kasun.bubltown@gmail.com</t>
+  </si>
+  <si>
+    <t>christina@bubltown.com</t>
+  </si>
+  <si>
+    <t>christina@bubltown.co.uk</t>
+  </si>
+  <si>
+    <t>debora@bubltown.com</t>
+  </si>
+  <si>
+    <t>debora@bubltown.co.uk</t>
+  </si>
+  <si>
+    <t>dpirabatharan@gmail.com</t>
+  </si>
+  <si>
+    <t>Akilmasoon@gmail.com</t>
+  </si>
+  <si>
+    <t>M.h.m.masoon@gmail.com</t>
+  </si>
+  <si>
+    <t>akil@bubltown.co.uk</t>
+  </si>
+  <si>
+    <t>amraricz@gmail.com</t>
+  </si>
+  <si>
+    <t>salmanrizwan2003@gmail.com</t>
+  </si>
+  <si>
+    <t>yeshanmario@gmail.com</t>
+  </si>
+  <si>
+    <t>yeshmax123@gmail.com</t>
+  </si>
+  <si>
+    <t>mario@bubltown.com</t>
+  </si>
+  <si>
+    <t>Sheehan</t>
+  </si>
+  <si>
+    <t>Zealan</t>
+  </si>
+  <si>
+    <t>Ashen</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Giles</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Tharindu</t>
+  </si>
+  <si>
+    <t>Shaun</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Kasun</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Akil</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>joansoasonaoinnoasn@gmail.com</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>peterkaskasmmasoa@outlook.com</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Simaonaneasadas@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -96,15 +348,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -380,57 +644,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{160BE925-0116-4DA6-9CF5-40AB035C8243}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D5BE96B3-277B-40F0-AF58-914E941929EA}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{A55D4E92-E271-418B-ADEB-092395AC440E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{691C1424-4E7B-4145-AF26-DF47F495C7B2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{F1F6C227-D93C-46C3-B747-9F1588E24962}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{041E11A3-0846-4F2B-B1FF-7F7677CB3A52}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{9FE39CA5-617E-472C-81A9-8621FE822013}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{075BF197-C4E2-493C-8F79-AF034D56D1F0}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{568E5F65-6CAF-415B-B6EA-B9A41B6FAAAF}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{FDFED992-9192-4A5E-8261-70B1A9CB2A08}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{26E73185-5530-48A7-8EA6-EEB7DBC9C59E}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{8CD66190-8205-480F-A9EC-F68665A4B60E}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{CBECE47E-9788-49C6-9A9B-F4AAEB39290D}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{918B88F6-EAF3-4EBC-8517-DFF53D8547BA}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{8F75848E-2FF9-4126-80BD-22310BC97131}"/>
+    <hyperlink ref="B58" r:id="rId14" xr:uid="{5B366D91-7F14-4A48-8103-C0AB337E10C4}"/>
+    <hyperlink ref="B59" r:id="rId15" xr:uid="{CB4E04BE-D99B-4686-BFC9-AA45CDEE8005}"/>
+    <hyperlink ref="B60" r:id="rId16" xr:uid="{754E4548-A2F3-408A-A426-48040376138B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>